--- a/src/main/webapp/archivos/LC1010-20 Formato de planilla comercial.xlsx
+++ b/src/main/webapp/archivos/LC1010-20 Formato de planilla comercial.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="5535" activeTab="1"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Descripción por campo'!$A$1:$E$34</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>Nº</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>F2</t>
+  </si>
+  <si>
+    <t>dia/mes/año Ejemplo: 11/09/2001</t>
   </si>
 </sst>
 </file>
@@ -627,17 +630,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,24 +1005,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="34.5" thickBot="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:33" ht="32.25" thickBot="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -1120,39 +1123,39 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="13.5" thickBot="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,14 +1170,16 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1">
@@ -1295,7 +1300,7 @@
       <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="33" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="23"/>
@@ -1310,7 +1315,7 @@
       <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="23"/>
       <c r="E9" s="27" t="s">
         <v>24</v>
@@ -1323,7 +1328,7 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="23"/>
       <c r="E10" s="27" t="s">
         <v>24</v>
@@ -1336,7 +1341,7 @@
       <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="23"/>
       <c r="E11" s="27" t="s">
         <v>24</v>
@@ -1349,7 +1354,7 @@
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="22" t="s">
         <v>46</v>
       </c>
@@ -1382,7 +1387,9 @@
         <v>12</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="E14" s="27" t="s">
         <v>24</v>
       </c>
@@ -1459,7 +1466,9 @@
       <c r="C19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="E19" s="27" t="s">
         <v>24</v>
       </c>
